--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/4/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/4/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4324324324324325</v>
+        <v>0.6278627862786279</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1553.553553553554</v>
+        <v>1431.273127312731</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05605605605605606</v>
+        <v>0.07076707670767077</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4934934934934935</v>
+        <v>0.2484248424842484</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1201.201201201201</v>
+        <v>614.001400140014</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>394.3943943943945</v>
+        <v>804.6804680468047</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.2022022022022</v>
+        <v>713.2583258325832</v>
       </c>
     </row>
   </sheetData>
